--- a/data/trans_dic/P41D_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P41D_2023-Clase-trans_dic.xlsx
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.867248213310682</v>
+        <v>0.8849252729415261</v>
       </c>
     </row>
     <row r="7">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.3547286079083247</v>
+        <v>0.3547286079083248</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.3555852118338608</v>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8920017560993561</v>
+        <v>0.7652889988019531</v>
       </c>
     </row>
     <row r="16">
@@ -815,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07542542318702654</v>
+        <v>0.07467978337336831</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04293123732389456</v>
+        <v>0.04893301383332394</v>
       </c>
     </row>
     <row r="21">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4952385906464142</v>
+        <v>0.5237901538278658</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5942719239666082</v>
+        <v>0.5991653248417775</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4016693096969433</v>
+        <v>0.3965437468669682</v>
       </c>
     </row>
     <row r="22">
@@ -997,7 +997,7 @@
         <v>2735</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4066</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="8">
@@ -1185,7 +1185,7 @@
         <v>2168</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5108</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="20">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>955</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="27">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5891</v>
+        <v>6230</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6151</v>
+        <v>6201</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8935</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="28">
